--- a/backend/excels/team_stats_template.xlsx
+++ b/backend/excels/team_stats_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="91">
   <si>
     <t xml:space="preserve">PÄIVÄ</t>
   </si>
@@ -31,115 +31,121 @@
     <t xml:space="preserve">SHP</t>
   </si>
   <si>
+    <t xml:space="preserve">RIISTO/MENETYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÄYTTÖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAHP/PAPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOITUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YHTEENSÄ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOUKKUEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TULOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAALIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAALIPAIKAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5vs5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELICANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastustaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KÄÄNTÖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASAVOIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YLIVOIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIVOIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÄPIAJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">RIISTO / MENETYS</t>
   </si>
   <si>
-    <t xml:space="preserve">TÄYTTÖ</t>
+    <t xml:space="preserve">1.PAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.PAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3./PUOL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAPP / PAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYÖTTÖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KULJETUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPP / KAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POHJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALF BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPP / HAHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JATKOPAINE</t>
   </si>
   <si>
     <t xml:space="preserve">HAHP / PAPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBOUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALOITUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YHTEENSÄ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PELI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOUKKUEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALIPAIKAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5vs5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PELICANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vastustaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KÄÄNTÖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASAVOIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YLIVOIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIVOIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÄPIAJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.PAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.PAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3./PUOL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAPP / PAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYÖTTÖ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KULJETUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPP / KAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POHJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALF BOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPP / HAHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JATKOPAINE</t>
   </si>
   <si>
     <t xml:space="preserve">MURT.</t>
@@ -353,7 +359,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,18 +368,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -382,208 +382,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -596,66 +396,80 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left style="thin"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -684,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -693,20 +507,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -717,247 +539,211 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,7 +772,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1044,9 +830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
+      <xdr:colOff>1026360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,7 +846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="68760" y="1247760"/>
-          <a:ext cx="1363320" cy="847080"/>
+          <a:ext cx="1650960" cy="846720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1254,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1287,60 +1073,60 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="8"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1365,10 +1151,10 @@
       <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -1377,10 +1163,10 @@
       <c r="P3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="11" t="s">
@@ -1389,27 +1175,27 @@
       <c r="T3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="15" t="n">
+      <c r="D4" s="8"/>
+      <c r="E4" s="13" t="n">
         <f aca="false">SUM(G10:I13)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="14" t="n">
         <f aca="false">SUM(J10:L13)</f>
         <v>0</v>
       </c>
@@ -1421,11 +1207,11 @@
         <f aca="false">SUM(J15:L15,J17:L17,J19:L19,J21:L21)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="13" t="n">
         <f aca="false">SUM(G23:I23)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="14" t="n">
         <f aca="false">SUM(J23:L23)</f>
         <v>0</v>
       </c>
@@ -1437,11 +1223,11 @@
         <f aca="false">SUM(J25:L25,J27:L27)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="15" t="n">
+      <c r="M4" s="13" t="n">
         <f aca="false">SUM(G29:I29)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="15" t="n">
+      <c r="N4" s="14" t="n">
         <f aca="false">SUM(J29:L29)</f>
         <v>0</v>
       </c>
@@ -1453,11 +1239,11 @@
         <f aca="false">SUM(J31:L31)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="13" t="n">
         <f aca="false">SUM(G33:I33,G58:I58)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="15" t="n">
+      <c r="R4" s="14" t="n">
         <f aca="false">SUM(J33:L33,J58:L58)</f>
         <v>0</v>
       </c>
@@ -1469,98 +1255,98 @@
         <f aca="false">SUM(J49,J38:L38,J40:L43,J45:L45,J47:L47,K49,L49,J51:L51,J53:L53)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="16" t="n">
+      <c r="U4" s="13" t="n">
         <f aca="false">SUM(E4,G4,I4,K4,M4,O4,Q4,S4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15" t="n">
+      <c r="V4" s="14" t="n">
         <f aca="false">SUM(F4,H4,J4,L4,N4,P4,R4,T4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="15" t="n">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="n">
         <f aca="false">SUM(M10:O13)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="18" t="n">
         <f aca="false">SUM(P10:R13)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="19" t="n">
         <f aca="false">SUM(M15:O15,M17:O17,M19:O19,M21:O21)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="19" t="n">
         <f aca="false">SUM(P15:R15,P17:R17,P19:R19,P21:R21)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="17" t="n">
         <f aca="false">SUM(M23:O23)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="18" t="n">
         <f aca="false">SUM(P23:R23)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" s="19" t="n">
         <f aca="false">SUM(M25:O25,M27:O27)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="15" t="n">
+      <c r="L5" s="19" t="n">
         <f aca="false">SUM(P25:R25,P27:R27)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="15" t="n">
+      <c r="M5" s="17" t="n">
         <f aca="false">SUM(M29:O29)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="15" t="n">
+      <c r="N5" s="18" t="n">
         <f aca="false">SUM(P29:R29)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="15" t="n">
+      <c r="O5" s="19" t="n">
         <f aca="false">SUM(M31:O31)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="19" t="n">
         <f aca="false">SUM(P31:R31)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q5" s="17" t="n">
         <f aca="false">SUM(M33:O33,M58:O58)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="18" t="n">
         <f aca="false">SUM(P33:R33,P58:R58)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="15" t="n">
+      <c r="S5" s="19" t="n">
         <f aca="false">SUM(M38:O38,M40:O43,M45:O45,M47:O47,M49:O49,M51:O51,M53:O53)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="15" t="n">
-        <f aca="false">SUM(R33:T33)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="16" t="n">
+      <c r="T5" s="19" t="n">
+        <f aca="false">SUM(P38:R38,P40:R43,P45:R45,P47:R47,P49:R49,P51:R51,P53:R53)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17" t="n">
         <f aca="false">SUM(E5,G5,I5,K5,M5,O5,Q5,S5)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="15" t="n">
+      <c r="V5" s="18" t="n">
         <f aca="false">SUM(F5,H5,J5,L5,N5,P5,R5,T5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1579,160 +1365,160 @@
       <c r="R6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="21" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="28" t="n">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="29" t="n">
         <v>0</v>
       </c>
@@ -1760,7 +1546,7 @@
       <c r="O11" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="29" t="n">
+      <c r="P11" s="30" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="30" t="n">
@@ -1771,15 +1557,15 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="32" t="n">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="30" t="n">
@@ -1788,7 +1574,7 @@
       <c r="I12" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="32" t="n">
+      <c r="J12" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="30" t="n">
@@ -1797,7 +1583,7 @@
       <c r="L12" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="32" t="n">
+      <c r="M12" s="29" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="30" t="n">
@@ -1806,7 +1592,7 @@
       <c r="O12" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="32" t="n">
+      <c r="P12" s="30" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="30" t="n">
@@ -1817,14 +1603,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="33" t="n">
         <v>0</v>
       </c>
@@ -1852,7 +1638,7 @@
       <c r="O13" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="33" t="n">
+      <c r="P13" s="34" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="34" t="n">
@@ -1863,876 +1649,868 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="36" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="H20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="24" t="s">
+      <c r="I20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="K20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="24" t="s">
+      <c r="L20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="N20" s="38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="O20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="P20" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="J24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="24" t="s">
+      <c r="M24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="25" t="s">
+      <c r="P24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="24" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="24" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C33" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26" s="41"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O30" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="R30" s="42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="O32" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="P32" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="R32" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="33" t="n">
         <v>0</v>
       </c>
@@ -2760,7 +2538,7 @@
       <c r="O33" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="P33" s="33" t="n">
+      <c r="P33" s="34" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="34" t="n">
@@ -2772,106 +2550,106 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45" t="s">
+      <c r="C35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45" t="s">
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="46" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46" t="s">
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47" t="s">
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="50" t="s">
+      <c r="C37" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="50" t="s">
+      <c r="H37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="R37" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="M37" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q37" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="R37" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="33" t="n">
         <v>0</v>
       </c>
@@ -2910,100 +2688,100 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="50" t="s">
+      <c r="C39" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="54" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="54" t="s">
+      <c r="H39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M39" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="O39" s="54" t="s">
+      <c r="K39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="P39" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="R39" s="54" t="s">
+      <c r="N39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" s="51" t="s">
         <v>68</v>
       </c>
+      <c r="Q39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" s="52" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="28" t="n">
+      <c r="C40" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
+      <c r="C41" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="29" t="n">
         <v>0</v>
       </c>
@@ -3042,13 +2820,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="32" t="n">
+      <c r="C42" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="30" t="n">
@@ -3057,7 +2835,7 @@
       <c r="I42" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="32" t="n">
+      <c r="J42" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="30" t="n">
@@ -3066,7 +2844,7 @@
       <c r="L42" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="M42" s="32" t="n">
+      <c r="M42" s="29" t="n">
         <v>0</v>
       </c>
       <c r="N42" s="30" t="n">
@@ -3075,7 +2853,7 @@
       <c r="O42" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P42" s="32" t="n">
+      <c r="P42" s="29" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="30" t="n">
@@ -3086,12 +2864,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="C43" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="33" t="n">
         <v>0</v>
       </c>
@@ -3128,59 +2906,59 @@
       <c r="R43" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="S43" s="58"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="54" t="s">
+      <c r="C44" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" s="54" t="s">
+      <c r="J44" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N44" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O44" s="54" t="s">
+      <c r="M44" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="O44" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="R44" s="54" t="s">
+      <c r="P44" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="C45" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="33" t="n">
         <v>0</v>
       </c>
@@ -3217,235 +2995,235 @@
       <c r="R45" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="S45" s="58"/>
+      <c r="S45" s="54"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="R46" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C47" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C48" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="O48" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q48" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R48" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="O46" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="P46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="R46" s="54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="62" t="s">
+      <c r="I50" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="54" t="s">
+      <c r="L50" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" s="54" t="s">
+      <c r="M50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M48" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N48" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" s="54" t="s">
+      <c r="P50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P48" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="R48" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O50" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q50" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="R50" s="54" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
+      <c r="C51" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="33" t="n">
         <v>0</v>
       </c>
@@ -3484,56 +3262,56 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="49" t="s">
+      <c r="C52" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="49" t="s">
+      <c r="I52" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" s="49" t="s">
+      <c r="L52" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N52" s="50" t="s">
+      <c r="N52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O52" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="P52" s="49" t="s">
+      <c r="O52" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="50" t="s">
+      <c r="Q52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="54" t="s">
-        <v>82</v>
+      <c r="R52" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
+      <c r="C53" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="33" t="n">
         <v>0</v>
       </c>
@@ -3573,106 +3351,106 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44" t="s">
+      <c r="C55" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44" t="s">
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="65" t="s">
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="66" t="s">
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="65" t="s">
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="66" t="s">
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49" t="s">
+      <c r="C57" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" s="49" t="s">
+      <c r="H57" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" s="54" t="s">
+      <c r="K57" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N57" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="O57" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="49" t="s">
+      <c r="P57" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N57" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="O57" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="P57" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q57" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="R57" s="54" t="s">
-        <v>51</v>
+      <c r="Q57" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="R57" s="52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
+      <c r="C58" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="33" t="n">
         <v>0</v>
       </c>
@@ -3700,7 +3478,7 @@
       <c r="O58" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="P58" s="33" t="n">
+      <c r="P58" s="34" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="34" t="n">
@@ -3711,56 +3489,56 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="63" t="s">
+      <c r="C59" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I59" s="54" t="s">
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59" s="63" t="s">
+      <c r="J59" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K59" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="N59" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="O59" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q59" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="R59" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C60" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="L59" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N59" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="O59" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q59" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="R59" s="54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="33" t="n">
         <v>0</v>
       </c>
@@ -3788,7 +3566,7 @@
       <c r="O60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="P60" s="33" t="n">
+      <c r="P60" s="34" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="34" t="n">

--- a/backend/excels/team_stats_template.xlsx
+++ b/backend/excels/team_stats_template.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">5vs5</t>
   </si>
   <si>
-    <t xml:space="preserve">PELICANS</t>
+    <t xml:space="preserve">OMA JOUKKUE</t>
   </si>
   <si>
     <t xml:space="preserve">Vastustaja</t>
@@ -498,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,10 +675,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -731,15 +727,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,48 +805,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1026360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68760" y="1247760"/>
-          <a:ext cx="1650960" cy="846720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2:V5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,7 +1022,6 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2578,78 +2523,78 @@
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45" t="s">
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="44" t="s">
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45" t="s">
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="47" t="s">
+      <c r="J37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="48" t="s">
+      <c r="N37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="48" t="s">
+      <c r="Q37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="49" t="s">
+      <c r="R37" s="48" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="33" t="n">
         <v>0</v>
       </c>
@@ -2688,56 +2633,56 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="51" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="N39" s="48" t="s">
+      <c r="N39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="O39" s="52" t="s">
+      <c r="O39" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P39" s="51" t="s">
+      <c r="P39" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="Q39" s="48" t="s">
+      <c r="Q39" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="R39" s="52" t="s">
+      <c r="R39" s="51" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="29" t="n">
         <v>0</v>
       </c>
@@ -2776,12 +2721,12 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="29" t="n">
         <v>0</v>
       </c>
@@ -2820,12 +2765,12 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="29" t="n">
         <v>0</v>
       </c>
@@ -2864,12 +2809,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="33" t="n">
         <v>0</v>
       </c>
@@ -2906,59 +2851,59 @@
       <c r="R43" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="S43" s="54"/>
+      <c r="S43" s="53"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47" t="s">
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="I44" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="L44" s="52" t="s">
+      <c r="L44" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="47" t="s">
+      <c r="M44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="48" t="s">
+      <c r="N44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O44" s="52" t="s">
+      <c r="O44" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="47" t="s">
+      <c r="P44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R44" s="52" t="s">
+      <c r="R44" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="33" t="n">
         <v>0</v>
       </c>
@@ -2995,59 +2940,59 @@
       <c r="R45" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="S45" s="54"/>
+      <c r="S45" s="53"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47" t="s">
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="52" t="s">
+      <c r="I46" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="L46" s="52" t="s">
+      <c r="L46" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N46" s="48" t="s">
+      <c r="N46" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O46" s="52" t="s">
+      <c r="O46" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="P46" s="47" t="s">
+      <c r="P46" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="Q46" s="48" t="s">
+      <c r="Q46" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="R46" s="52" t="s">
+      <c r="R46" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="33" t="n">
         <v>0</v>
       </c>
@@ -3086,56 +3031,56 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47" t="s">
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="52" t="s">
+      <c r="I48" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="47" t="s">
+      <c r="J48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K48" s="55" t="s">
+      <c r="K48" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="L48" s="52" t="s">
+      <c r="L48" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M48" s="47" t="s">
+      <c r="M48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="55" t="s">
+      <c r="N48" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="O48" s="52" t="s">
+      <c r="O48" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="Q48" s="55" t="s">
+      <c r="Q48" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R48" s="52" t="s">
+      <c r="R48" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="33" t="n">
         <v>0</v>
       </c>
@@ -3174,56 +3119,56 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47" t="s">
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="48" t="s">
+      <c r="H50" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I50" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="J50" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="L50" s="52" t="s">
+      <c r="L50" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M50" s="47" t="s">
+      <c r="M50" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="N50" s="48" t="s">
+      <c r="N50" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="52" t="s">
+      <c r="O50" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="P50" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" s="48" t="s">
+      <c r="Q50" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R50" s="52" t="s">
+      <c r="R50" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="33" t="n">
         <v>0</v>
       </c>
@@ -3262,56 +3207,56 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="J52" s="47" t="s">
+      <c r="J52" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="48" t="s">
+      <c r="K52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="52" t="s">
+      <c r="L52" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="M52" s="47" t="s">
+      <c r="M52" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N52" s="48" t="s">
+      <c r="N52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O52" s="52" t="s">
+      <c r="O52" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P52" s="47" t="s">
+      <c r="P52" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R52" s="52" t="s">
+      <c r="R52" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="33" t="n">
         <v>0</v>
       </c>
@@ -3351,20 +3296,20 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="57" t="s">
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
       <c r="M55" s="42" t="s">
         <v>17</v>
       </c>
@@ -3375,82 +3320,82 @@
       <c r="R55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="58" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="59" t="s">
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="60" t="s">
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="61" t="s">
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47" t="s">
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="H57" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I57" s="52" t="s">
+      <c r="I57" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="47" t="s">
+      <c r="J57" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="48" t="s">
+      <c r="K57" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="52" t="s">
+      <c r="L57" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="47" t="s">
+      <c r="M57" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O57" s="52" t="s">
+      <c r="O57" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="48" t="s">
+      <c r="P57" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="Q57" s="48" t="s">
+      <c r="Q57" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="R57" s="52" t="s">
+      <c r="R57" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="33" t="n">
         <v>0</v>
       </c>
@@ -3489,56 +3434,56 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="47" t="s">
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="52" t="s">
+      <c r="I59" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="47" t="s">
+      <c r="J59" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="K59" s="55" t="s">
+      <c r="K59" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="L59" s="52" t="s">
+      <c r="L59" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="47" t="s">
+      <c r="M59" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="N59" s="55" t="s">
+      <c r="N59" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="O59" s="52" t="s">
+      <c r="O59" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="48" t="s">
+      <c r="P59" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="Q59" s="55" t="s">
+      <c r="Q59" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="R59" s="52" t="s">
+      <c r="R59" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="33" t="n">
         <v>0</v>
       </c>
@@ -4607,6 +4552,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>